--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3723.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3723.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.356235391857312</v>
+        <v>1.595116972923279</v>
       </c>
       <c r="B1">
-        <v>2.84241300201333</v>
+        <v>3.197046995162964</v>
       </c>
       <c r="C1">
-        <v>6.1606724457633</v>
+        <v>2.902799844741821</v>
       </c>
       <c r="D1">
-        <v>1.986917274031965</v>
+        <v>1.777951002120972</v>
       </c>
       <c r="E1">
-        <v>1.033104111216624</v>
+        <v>0.9104089140892029</v>
       </c>
     </row>
   </sheetData>
